--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3522.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3522.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.612663123492151</v>
+        <v>1.790254473686218</v>
       </c>
       <c r="B1">
-        <v>2.592454206592851</v>
+        <v>2.249180316925049</v>
       </c>
       <c r="C1">
-        <v>3.198757130008429</v>
+        <v>1.962173819541931</v>
       </c>
       <c r="D1">
-        <v>3.558354396324997</v>
+        <v>1.622416496276855</v>
       </c>
       <c r="E1">
-        <v>1.937673835280503</v>
+        <v>1.529477834701538</v>
       </c>
     </row>
   </sheetData>
